--- a/爬虫修复及更新链接20190625(2).xlsx
+++ b/爬虫修复及更新链接20190625(2).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E5A482-2E60-46E4-BB38-4D8C6AC8FA00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,406 +276,413 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ETRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPSA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUCCI 商品详情采集不到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JURLIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.A.C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marc Jacobs 彩妆和时尚两套链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.marcjacobsbeauty.com/eye/eyeliner</t>
+  </si>
+  <si>
+    <t>Max Mara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JO MALONE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jomalone.com.cn/products/3574#/products/19369</t>
+  </si>
+  <si>
+    <t>NARS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://eshop.narshk.com/html/2018-holiday-checkout-zh.html</t>
+  </si>
+  <si>
+    <t>Clé de Peau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIKE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adidas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Champion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rejina Pyo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off-white</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 Phillip Lim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://us.christianlouboutin.com/ca_en/shop-online-1/women-canada/bags/all-handbags.html</t>
+  </si>
+  <si>
+    <t>Vans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSGM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONVERSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cledepeau-beaute.com.cn/products-skincare-allproducts</t>
+  </si>
+  <si>
+    <t>https://store.nike.com/cn/zh_cn/pw/mens-shoes/7puZoi3</t>
+  </si>
+  <si>
+    <t>https://www.y-3.com/hk/y3store/men/caps-beanies</t>
+  </si>
+  <si>
+    <t>https://www.adidas.com.cn/men_originals_shoes</t>
+  </si>
+  <si>
+    <t>https://www.champion.com/shop/champion/men/featured/mens-feature2</t>
+  </si>
+  <si>
+    <t>https://rejinapyo.com/collections/dresses</t>
+  </si>
+  <si>
+    <t>Christian Louboutin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.off---white.com/en/CN/men/t/seasons/fw-2019?f%5Bcategories%5D%5B%5D=876&amp;utf8=%E2%9C%93</t>
+  </si>
+  <si>
+    <t>https://www.31philliplim.com/cn/sets/woman/dresses</t>
+  </si>
+  <si>
+    <t>https://shop.swatch.cn/zh_cn/watches/originals/big-bold.html</t>
+  </si>
+  <si>
+    <t>https://vans.com.cn/gallery-index---0---27.html?utm_source=pc_homepage&amp;utm_medium=pc_%E9%9E%8B%E6%AC%BE&amp;utm_campaign=ownsite</t>
+  </si>
+  <si>
+    <t>Chaumet 网站域名改变，采集不到了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.converse.com.cn/men-sneakers/category.htm?iid=tpnvmc06012015</t>
+  </si>
+  <si>
+    <t>https://www.msgm.it/en/woman/?RwGal=true&amp;nodi_ID=9484</t>
+  </si>
+  <si>
+    <t>https://www.chanel.com/zh_CN/watches-jewelry/watches/c/j12/W001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chanel.com/zh_CN/watches-jewelry/fine-jewelry/c/rings/J001000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gucci.cn/zh/ca/men/accessories/belts?pn=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bulgari.cn/zh-cn/jewellery/rings.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.prada.com/cn/zh/women/bags.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ysl.com/wy/saint-laurent/shop-product/%E7%94%B7%E5%A3%AB/%E5%B0%8F%E7%9A%AE%E5%85%B7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.fendi.cn/women/featured/new/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转淘宝了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/explorer/all-models.html</t>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/oyster-perpetual/all-models.html#g=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.debeers.com.cn/high-jewellery/bespoke-classics/1888-master-diamonds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.swarovski.com.cn/zh-CN/c-4002/Categories/%E7%B3%BB%E5%88%97/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.mcmworldwide.com/zh_CN/%E5%A5%B3%E5%A3%AB/%E5%8C%85%E8%A2%8B/%E6%89%80%E6%9C%89%E5%8C%85%E8%A2%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.mcmworldwide.com/zh_CN/%E6%97%85%E8%A1%8C%E7%94%A8%E5%93%81/%E5%A5%B3%E5%A3%AB/%E6%89%80%E6%9C%89%E6%97%85%E8%A1%8C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.laprairie.com.cn/cn/moisturizers?icid=navcatmois</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.longines.cn/watches/elegance/primaluna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.iwc.cn/cn/zh-cn/watches.html#%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kenzo.com/eu/en/women/new-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lorealparis.com.cn/SkinCare/Solution/HydraFresh.loreal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qeelinchina.com/sc/jewellery/categories/necklaces/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.laprairie.com.cn/cn/platinum-rare-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chaumet.com/zh-hans/jewellery/rings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.olay.com.cn/magic</t>
-  </si>
-  <si>
-    <t>ETRO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.etro.com/zh_cn/woman/ready-to-wear/outerwear.html</t>
-  </si>
-  <si>
-    <t>IPSA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUCCI 商品详情采集不到</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.ipsa.com.cn/skincare/cleasing.html</t>
-  </si>
-  <si>
-    <t>JURLIQUE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://www.jurlique.com.cn/cleansers/</t>
-  </si>
-  <si>
-    <t>M.A.C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.maccosmetics.com.cn/products/13854</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.marcjacobs.com/the-marc-jacobs/shop-the-marc-jacobs/?lcat=home_hero&amp;from=home</t>
-  </si>
-  <si>
-    <t>Marc Jacobs 彩妆和时尚两套链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.marcjacobsbeauty.com/eye/eyeliner</t>
-  </si>
-  <si>
-    <t>Max Mara</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://cn.maxmara.com/clothing/womens-dresses</t>
-  </si>
-  <si>
-    <t>JO MALONE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jomalone.com.cn/products/3574#/products/19369</t>
-  </si>
-  <si>
-    <t>NARS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://eshop.narshk.com/html/2018-holiday-checkout-zh.html</t>
-  </si>
-  <si>
-    <t>Clé de Peau</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIKE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adidas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Champion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rejina Pyo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off-white</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 Phillip Lim</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>swatch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://us.christianlouboutin.com/ca_en/shop-online-1/women-canada/bags/all-handbags.html</t>
-  </si>
-  <si>
-    <t>Vans</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSGM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONVERSE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cledepeau-beaute.com.cn/products-skincare-allproducts</t>
-  </si>
-  <si>
-    <t>https://store.nike.com/cn/zh_cn/pw/mens-shoes/7puZoi3</t>
-  </si>
-  <si>
-    <t>https://www.y-3.com/hk/y3store/men/caps-beanies</t>
-  </si>
-  <si>
-    <t>https://www.adidas.com.cn/men_originals_shoes</t>
-  </si>
-  <si>
-    <t>https://www.champion.com/shop/champion/men/featured/mens-feature2</t>
-  </si>
-  <si>
-    <t>https://rejinapyo.com/collections/dresses</t>
-  </si>
-  <si>
-    <t>Christian Louboutin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.off---white.com/en/CN/men/t/seasons/fw-2019?f%5Bcategories%5D%5B%5D=876&amp;utf8=%E2%9C%93</t>
-  </si>
-  <si>
-    <t>https://www.31philliplim.com/cn/sets/woman/dresses</t>
-  </si>
-  <si>
-    <t>https://shop.swatch.cn/zh_cn/watches/originals/big-bold.html</t>
-  </si>
-  <si>
-    <t>https://vans.com.cn/gallery-index---0---27.html?utm_source=pc_homepage&amp;utm_medium=pc_%E9%9E%8B%E6%AC%BE&amp;utm_campaign=ownsite</t>
-  </si>
-  <si>
-    <t>Chaumet 网站域名改变，采集不到了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.converse.com.cn/men-sneakers/category.htm?iid=tpnvmc06012015</t>
-  </si>
-  <si>
-    <t>https://www.msgm.it/en/woman/?RwGal=true&amp;nodi_ID=9484</t>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/watches-jewelry/watches/c/j12/W001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/watches-jewelry/fine-jewelry/c/rings/J001000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.gucci.cn/zh/ca/men/accessories/belts?pn=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bulgari.cn/zh-cn/jewellery/rings.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.prada.com/cn/zh/women/bags.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ysl.com/wy/saint-laurent/shop-product/%E7%94%B7%E5%A3%AB/%E5%B0%8F%E7%9A%AE%E5%85%B7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.fendi.cn/women/featured/new/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转淘宝了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/explorer/all-models.html</t>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/oyster-perpetual/all-models.html#g=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.debeers.com.cn/high-jewellery/bespoke-classics/1888-master-diamonds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.swarovski.com.cn/zh-CN/c-4002/Categories/%E7%B3%BB%E5%88%97/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.mcmworldwide.com/zh_CN/%E5%A5%B3%E5%A3%AB/%E5%8C%85%E8%A2%8B/%E6%89%80%E6%9C%89%E5%8C%85%E8%A2%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.mcmworldwide.com/zh_CN/%E6%97%85%E8%A1%8C%E7%94%A8%E5%93%81/%E5%A5%B3%E5%A3%AB/%E6%89%80%E6%9C%89%E6%97%85%E8%A1%8C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.laprairie.com.cn/cn/moisturizers?icid=navcatmois</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.longines.cn/watches/elegance/primaluna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.iwc.cn/cn/zh-cn/watches.html#%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.kenzo.com/eu/en/women/new-collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.lorealparis.com.cn/SkinCare/Solution/HydraFresh.loreal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://qeelinchina.com/sc/jewellery/categories/necklaces/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.laprairie.com.cn/cn/platinum-rare-collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chaumet.com/zh-hans/jewellery/rings</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,6 +788,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,6 +886,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -910,6 +938,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1085,23 +1130,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
         <v>43642</v>
       </c>
@@ -1109,19 +1154,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43642</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43642</v>
       </c>
@@ -1129,19 +1174,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43642</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43642</v>
       </c>
@@ -1149,30 +1194,30 @@
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43642</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43642</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43642</v>
       </c>
@@ -1180,10 +1225,10 @@
         <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43645</v>
       </c>
@@ -1191,10 +1236,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43645</v>
       </c>
@@ -1203,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43645</v>
       </c>
@@ -1211,19 +1256,19 @@
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43645</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43645</v>
       </c>
@@ -1231,10 +1276,10 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43645</v>
       </c>
@@ -1243,7 +1288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>43645</v>
       </c>
@@ -1251,19 +1296,19 @@
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43645</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43645</v>
       </c>
@@ -1271,10 +1316,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43645</v>
       </c>
@@ -1283,7 +1328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43653</v>
       </c>
@@ -1291,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43653</v>
       </c>
@@ -1303,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43653</v>
       </c>
@@ -1311,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43653</v>
       </c>
@@ -1323,7 +1368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>43653</v>
       </c>
@@ -1331,10 +1376,10 @@
         <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>43653</v>
       </c>
@@ -1342,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>43653</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43653</v>
       </c>
@@ -1362,19 +1407,19 @@
         <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43653</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43653</v>
       </c>
@@ -1382,10 +1427,10 @@
         <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43653</v>
       </c>
@@ -1394,25 +1439,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43653</v>
       </c>
@@ -1420,10 +1465,10 @@
         <v>37</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43653</v>
       </c>
@@ -1431,10 +1476,10 @@
         <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43653</v>
       </c>
@@ -1443,7 +1488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43653</v>
       </c>
@@ -1451,10 +1496,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43653</v>
       </c>
@@ -1463,7 +1508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>43660</v>
       </c>
@@ -1471,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43660</v>
       </c>
@@ -1483,7 +1528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>43660</v>
       </c>
@@ -1491,19 +1536,19 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43660</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>43660</v>
       </c>
@@ -1511,19 +1556,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43660</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>43660</v>
       </c>
@@ -1531,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43660</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>43660</v>
       </c>
@@ -1551,19 +1596,19 @@
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>43660</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>43660</v>
       </c>
@@ -1571,10 +1616,10 @@
         <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>43660</v>
       </c>
@@ -1582,10 +1627,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>43660</v>
       </c>
@@ -1593,19 +1638,19 @@
         <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>43660</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>43660</v>
       </c>
@@ -1613,19 +1658,19 @@
         <v>10</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>43660</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>43660</v>
       </c>
@@ -1633,10 +1678,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>43660</v>
       </c>
@@ -1645,7 +1690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>43660</v>
       </c>
@@ -1653,30 +1698,30 @@
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>43660</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>43674</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>43674</v>
       </c>
@@ -1684,10 +1729,10 @@
         <v>39</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>43674</v>
       </c>
@@ -1695,10 +1740,10 @@
         <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>43674</v>
       </c>
@@ -1706,19 +1751,19 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>43674</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>43674</v>
       </c>
@@ -1726,19 +1771,19 @@
         <v>44</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>43674</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>43674</v>
       </c>
@@ -1746,10 +1791,10 @@
         <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>43674</v>
       </c>
@@ -1757,10 +1802,10 @@
         <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>43674</v>
       </c>
@@ -1768,10 +1813,10 @@
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>43674</v>
       </c>
@@ -1779,10 +1824,10 @@
         <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>43674</v>
       </c>
@@ -1790,192 +1835,192 @@
         <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="2" t="s">
+    <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="12"/>
       <c r="C75" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
+      <c r="C79" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+      <c r="C81" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
+      <c r="C83" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+      <c r="C85" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
+      <c r="C86" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+      <c r="C87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="89" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+    <row r="90" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
+      <c r="C90" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>41</v>
       </c>
@@ -1983,12 +2028,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>45</v>
       </c>
@@ -1996,12 +2041,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>48</v>
       </c>
@@ -2009,12 +2054,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,7 +2067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>58</v>
       </c>
@@ -2030,12 +2075,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>55</v>
       </c>
@@ -2043,7 +2088,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
         <v>57</v>
       </c>
@@ -2054,75 +2099,82 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="C9" r:id="rId9"/>
-    <hyperlink ref="C13" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C21" r:id="rId15"/>
-    <hyperlink ref="C23" r:id="rId16"/>
-    <hyperlink ref="C24" r:id="rId17"/>
-    <hyperlink ref="C25" r:id="rId18"/>
-    <hyperlink ref="C26" r:id="rId19"/>
-    <hyperlink ref="C27" r:id="rId20"/>
-    <hyperlink ref="C28" r:id="rId21"/>
-    <hyperlink ref="C30" r:id="rId22"/>
-    <hyperlink ref="C31" r:id="rId23"/>
-    <hyperlink ref="C32" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
-    <hyperlink ref="C35" r:id="rId26"/>
-    <hyperlink ref="C37" r:id="rId27"/>
-    <hyperlink ref="C39" r:id="rId28"/>
-    <hyperlink ref="C40" r:id="rId29"/>
-    <hyperlink ref="C41" r:id="rId30"/>
-    <hyperlink ref="C42" r:id="rId31"/>
-    <hyperlink ref="C43" r:id="rId32"/>
-    <hyperlink ref="C44" r:id="rId33"/>
-    <hyperlink ref="C45" r:id="rId34"/>
-    <hyperlink ref="C46" r:id="rId35"/>
-    <hyperlink ref="C47" r:id="rId36"/>
-    <hyperlink ref="C48" r:id="rId37"/>
-    <hyperlink ref="C53" r:id="rId38" location="block-14477"/>
-    <hyperlink ref="C49" r:id="rId39"/>
-    <hyperlink ref="C51" r:id="rId40"/>
-    <hyperlink ref="C52" r:id="rId41" location="g=0"/>
-    <hyperlink ref="C55" r:id="rId42"/>
-    <hyperlink ref="C56" r:id="rId43"/>
-    <hyperlink ref="C50" r:id="rId44"/>
-    <hyperlink ref="C57" r:id="rId45"/>
-    <hyperlink ref="C58" r:id="rId46"/>
-    <hyperlink ref="C59" r:id="rId47"/>
-    <hyperlink ref="C60" r:id="rId48"/>
-    <hyperlink ref="C61" r:id="rId49"/>
-    <hyperlink ref="C62" r:id="rId50"/>
-    <hyperlink ref="C63" r:id="rId51"/>
-    <hyperlink ref="C64" r:id="rId52"/>
-    <hyperlink ref="C65" r:id="rId53" location="%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D"/>
-    <hyperlink ref="C66" r:id="rId54"/>
-    <hyperlink ref="C67" r:id="rId55"/>
-    <hyperlink ref="C68" r:id="rId56"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C53" r:id="rId38" location="block-14477" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C52" r:id="rId41" location="g=0" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C55" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C57" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C58" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C59" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C60" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C61" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C62" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C64" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C65" r:id="rId53" location="%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C66" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C67" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C69" r:id="rId57" xr:uid="{58C02D1C-546C-42E7-9096-00A252EAC432}"/>
+    <hyperlink ref="C70" r:id="rId58" xr:uid="{73F80D94-7C21-4F8B-A120-74715C9F7F86}"/>
+    <hyperlink ref="C71" r:id="rId59" xr:uid="{B15AC7F7-1DDD-43C3-BC70-4F3E91F1846D}"/>
+    <hyperlink ref="C72" r:id="rId60" xr:uid="{DC131E05-DD0B-4746-9D59-F6C72AAA8745}"/>
+    <hyperlink ref="C73" r:id="rId61" xr:uid="{8ABB69DE-F62C-4561-A88D-34840D7604ED}"/>
+    <hyperlink ref="C74" r:id="rId62" xr:uid="{0564EFB8-2DE1-4C4C-9C73-44DFE27C944C}"/>
+    <hyperlink ref="C76" r:id="rId63" xr:uid="{53B258A3-5044-45BD-96A0-F4FFB96A5648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2130,12 +2182,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/爬虫修复及更新链接20190625(2).xlsx
+++ b/爬虫修复及更新链接20190625(2).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E5A482-2E60-46E4-BB38-4D8C6AC8FA00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,409 +279,412 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>GUCCI 商品详情采集不到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JURLIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.A.C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marc Jacobs 彩妆和时尚两套链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.marcjacobsbeauty.com/eye/eyeliner</t>
+  </si>
+  <si>
+    <t>Max Mara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JO MALONE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NARS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clé de Peau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIKE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adidas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Champion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rejina Pyo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off-white</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 Phillip Lim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://us.christianlouboutin.com/ca_en/shop-online-1/women-canada/bags/all-handbags.html</t>
+  </si>
+  <si>
+    <t>Vans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSGM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONVERSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.nike.com/cn/zh_cn/pw/mens-shoes/7puZoi3</t>
+  </si>
+  <si>
+    <t>https://www.y-3.com/hk/y3store/men/caps-beanies</t>
+  </si>
+  <si>
+    <t>https://www.adidas.com.cn/men_originals_shoes</t>
+  </si>
+  <si>
+    <t>https://www.champion.com/shop/champion/men/featured/mens-feature2</t>
+  </si>
+  <si>
+    <t>https://rejinapyo.com/collections/dresses</t>
+  </si>
+  <si>
+    <t>Christian Louboutin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.off---white.com/en/CN/men/t/seasons/fw-2019?f%5Bcategories%5D%5B%5D=876&amp;utf8=%E2%9C%93</t>
+  </si>
+  <si>
+    <t>https://www.31philliplim.com/cn/sets/woman/dresses</t>
+  </si>
+  <si>
+    <t>https://shop.swatch.cn/zh_cn/watches/originals/big-bold.html</t>
+  </si>
+  <si>
+    <t>https://vans.com.cn/gallery-index---0---27.html?utm_source=pc_homepage&amp;utm_medium=pc_%E9%9E%8B%E6%AC%BE&amp;utm_campaign=ownsite</t>
+  </si>
+  <si>
+    <t>Chaumet 网站域名改变，采集不到了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.converse.com.cn/men-sneakers/category.htm?iid=tpnvmc06012015</t>
+  </si>
+  <si>
+    <t>https://www.msgm.it/en/woman/?RwGal=true&amp;nodi_ID=9484</t>
+  </si>
+  <si>
+    <t>https://www.chanel.com/zh_CN/watches-jewelry/watches/c/j12/W001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chanel.com/zh_CN/watches-jewelry/fine-jewelry/c/rings/J001000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gucci.cn/zh/ca/men/accessories/belts?pn=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bulgari.cn/zh-cn/jewellery/rings.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.prada.com/cn/zh/women/bags.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ysl.com/wy/saint-laurent/shop-product/%E7%94%B7%E5%A3%AB/%E5%B0%8F%E7%9A%AE%E5%85%B7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.fendi.cn/women/featured/new/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转淘宝了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/explorer/all-models.html</t>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/oyster-perpetual/all-models.html#g=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.debeers.com.cn/high-jewellery/bespoke-classics/1888-master-diamonds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.swarovski.com.cn/zh-CN/c-4002/Categories/%E7%B3%BB%E5%88%97/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.mcmworldwide.com/zh_CN/%E5%A5%B3%E5%A3%AB/%E5%8C%85%E8%A2%8B/%E6%89%80%E6%9C%89%E5%8C%85%E8%A2%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.mcmworldwide.com/zh_CN/%E6%97%85%E8%A1%8C%E7%94%A8%E5%93%81/%E5%A5%B3%E5%A3%AB/%E6%89%80%E6%9C%89%E6%97%85%E8%A1%8C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.laprairie.com.cn/cn/moisturizers?icid=navcatmois</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.longines.cn/watches/elegance/primaluna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.iwc.cn/cn/zh-cn/watches.html#%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kenzo.com/eu/en/women/new-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lorealparis.com.cn/SkinCare/Solution/HydraFresh.loreal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qeelinchina.com/sc/jewellery/categories/necklaces/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.laprairie.com.cn/cn/platinum-rare-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chaumet.com/zh-hans/jewellery/rings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.olay.com.cn/magic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.etro.com/zh_cn/woman/ready-to-wear/outerwear.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ipsa.com.cn/skincare/cleasing.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jurlique.com.cn/cleansers/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maccosmetics.com.cn/products/13854</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.marcjacobs.com/the-marc-jacobs/shop-the-marc-jacobs/?lcat=home_hero&amp;from=home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.maxmara.com/clothing/womens-dresses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jomalone.com.cn/products/3574#/products/19369</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://eshop.narshk.com/html/2018-holiday-checkout-zh.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cledepeau-beaute.com.cn/products-skincare-allproducts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>IPSA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUCCI 商品详情采集不到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JURLIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.A.C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marc Jacobs 彩妆和时尚两套链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.marcjacobsbeauty.com/eye/eyeliner</t>
-  </si>
-  <si>
-    <t>Max Mara</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JO MALONE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jomalone.com.cn/products/3574#/products/19369</t>
-  </si>
-  <si>
-    <t>NARS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://eshop.narshk.com/html/2018-holiday-checkout-zh.html</t>
-  </si>
-  <si>
-    <t>Clé de Peau</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIKE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adidas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Champion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rejina Pyo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off-white</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 Phillip Lim</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>swatch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://us.christianlouboutin.com/ca_en/shop-online-1/women-canada/bags/all-handbags.html</t>
-  </si>
-  <si>
-    <t>Vans</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSGM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONVERSE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cledepeau-beaute.com.cn/products-skincare-allproducts</t>
-  </si>
-  <si>
-    <t>https://store.nike.com/cn/zh_cn/pw/mens-shoes/7puZoi3</t>
-  </si>
-  <si>
-    <t>https://www.y-3.com/hk/y3store/men/caps-beanies</t>
-  </si>
-  <si>
-    <t>https://www.adidas.com.cn/men_originals_shoes</t>
-  </si>
-  <si>
-    <t>https://www.champion.com/shop/champion/men/featured/mens-feature2</t>
-  </si>
-  <si>
-    <t>https://rejinapyo.com/collections/dresses</t>
-  </si>
-  <si>
-    <t>Christian Louboutin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.off---white.com/en/CN/men/t/seasons/fw-2019?f%5Bcategories%5D%5B%5D=876&amp;utf8=%E2%9C%93</t>
-  </si>
-  <si>
-    <t>https://www.31philliplim.com/cn/sets/woman/dresses</t>
-  </si>
-  <si>
-    <t>https://shop.swatch.cn/zh_cn/watches/originals/big-bold.html</t>
-  </si>
-  <si>
-    <t>https://vans.com.cn/gallery-index---0---27.html?utm_source=pc_homepage&amp;utm_medium=pc_%E9%9E%8B%E6%AC%BE&amp;utm_campaign=ownsite</t>
-  </si>
-  <si>
-    <t>Chaumet 网站域名改变，采集不到了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.converse.com.cn/men-sneakers/category.htm?iid=tpnvmc06012015</t>
-  </si>
-  <si>
-    <t>https://www.msgm.it/en/woman/?RwGal=true&amp;nodi_ID=9484</t>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/watches-jewelry/watches/c/j12/W001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/watches-jewelry/fine-jewelry/c/rings/J001000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.gucci.cn/zh/ca/men/accessories/belts?pn=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bulgari.cn/zh-cn/jewellery/rings.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.prada.com/cn/zh/women/bags.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ysl.com/wy/saint-laurent/shop-product/%E7%94%B7%E5%A3%AB/%E5%B0%8F%E7%9A%AE%E5%85%B7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.fendi.cn/women/featured/new/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转淘宝了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/explorer/all-models.html</t>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/oyster-perpetual/all-models.html#g=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.debeers.com.cn/high-jewellery/bespoke-classics/1888-master-diamonds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.swarovski.com.cn/zh-CN/c-4002/Categories/%E7%B3%BB%E5%88%97/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.mcmworldwide.com/zh_CN/%E5%A5%B3%E5%A3%AB/%E5%8C%85%E8%A2%8B/%E6%89%80%E6%9C%89%E5%8C%85%E8%A2%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.mcmworldwide.com/zh_CN/%E6%97%85%E8%A1%8C%E7%94%A8%E5%93%81/%E5%A5%B3%E5%A3%AB/%E6%89%80%E6%9C%89%E6%97%85%E8%A1%8C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.laprairie.com.cn/cn/moisturizers?icid=navcatmois</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.longines.cn/watches/elegance/primaluna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.iwc.cn/cn/zh-cn/watches.html#%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.kenzo.com/eu/en/women/new-collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.lorealparis.com.cn/SkinCare/Solution/HydraFresh.loreal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://qeelinchina.com/sc/jewellery/categories/necklaces/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.laprairie.com.cn/cn/platinum-rare-collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chaumet.com/zh-hans/jewellery/rings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.olay.com.cn/magic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.etro.com/zh_cn/woman/ready-to-wear/outerwear.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ipsa.com.cn/skincare/cleasing.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jurlique.com.cn/cleansers/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maccosmetics.com.cn/products/13854</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.marcjacobs.com/the-marc-jacobs/shop-the-marc-jacobs/?lcat=home_hero&amp;from=home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.maxmara.com/clothing/womens-dresses</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -786,11 +788,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,23 +888,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -938,23 +923,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1130,23 +1098,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
         <v>43642</v>
       </c>
@@ -1154,19 +1122,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>43642</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>43642</v>
       </c>
@@ -1174,19 +1142,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>43642</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>43642</v>
       </c>
@@ -1194,30 +1162,30 @@
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>43642</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>43642</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>43642</v>
       </c>
@@ -1225,10 +1193,10 @@
         <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>43645</v>
       </c>
@@ -1236,10 +1204,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>43645</v>
       </c>
@@ -1248,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>43645</v>
       </c>
@@ -1256,19 +1224,19 @@
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>43645</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>43645</v>
       </c>
@@ -1276,10 +1244,10 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>43645</v>
       </c>
@@ -1288,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>43645</v>
       </c>
@@ -1296,19 +1264,19 @@
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>43645</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>43645</v>
       </c>
@@ -1316,10 +1284,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>43645</v>
       </c>
@@ -1328,7 +1296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>43653</v>
       </c>
@@ -1336,10 +1304,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>43653</v>
       </c>
@@ -1348,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>43653</v>
       </c>
@@ -1356,10 +1324,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>43653</v>
       </c>
@@ -1368,7 +1336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>43653</v>
       </c>
@@ -1376,10 +1344,10 @@
         <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>43653</v>
       </c>
@@ -1387,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>43653</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>43653</v>
       </c>
@@ -1407,19 +1375,19 @@
         <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>43653</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>43653</v>
       </c>
@@ -1427,10 +1395,10 @@
         <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>43653</v>
       </c>
@@ -1439,25 +1407,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>43653</v>
       </c>
@@ -1465,10 +1433,10 @@
         <v>37</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>43653</v>
       </c>
@@ -1476,10 +1444,10 @@
         <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>43653</v>
       </c>
@@ -1488,7 +1456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>43653</v>
       </c>
@@ -1496,10 +1464,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>43653</v>
       </c>
@@ -1508,7 +1476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>43660</v>
       </c>
@@ -1516,10 +1484,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>43660</v>
       </c>
@@ -1528,7 +1496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>43660</v>
       </c>
@@ -1536,19 +1504,19 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>43660</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>43660</v>
       </c>
@@ -1556,19 +1524,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>43660</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>43660</v>
       </c>
@@ -1576,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43660</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>43660</v>
       </c>
@@ -1596,19 +1564,19 @@
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>43660</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>43660</v>
       </c>
@@ -1616,10 +1584,10 @@
         <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>43660</v>
       </c>
@@ -1627,10 +1595,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>43660</v>
       </c>
@@ -1638,19 +1606,19 @@
         <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>43660</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>43660</v>
       </c>
@@ -1658,19 +1626,19 @@
         <v>10</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>43660</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>43660</v>
       </c>
@@ -1678,10 +1646,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>43660</v>
       </c>
@@ -1690,7 +1658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>43660</v>
       </c>
@@ -1698,30 +1666,30 @@
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>43660</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>43674</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>43674</v>
       </c>
@@ -1729,10 +1697,10 @@
         <v>39</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>43674</v>
       </c>
@@ -1740,10 +1708,10 @@
         <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>43674</v>
       </c>
@@ -1751,19 +1719,19 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>43674</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>43674</v>
       </c>
@@ -1771,19 +1739,19 @@
         <v>44</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>43674</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>43674</v>
       </c>
@@ -1791,10 +1759,10 @@
         <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>43674</v>
       </c>
@@ -1802,10 +1770,10 @@
         <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>43674</v>
       </c>
@@ -1813,10 +1781,10 @@
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>43674</v>
       </c>
@@ -1824,10 +1792,10 @@
         <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>43674</v>
       </c>
@@ -1835,192 +1803,219 @@
         <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6">
+        <v>43681</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6">
+        <v>43681</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6">
+        <v>43681</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6">
+        <v>43681</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6">
+        <v>43681</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="4" t="s">
+    <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="13"/>
+      <c r="C75" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6">
+        <v>43681</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="4" t="s">
+    <row r="77" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6">
+        <v>43681</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="4" t="s">
+    <row r="78" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6">
+        <v>43681</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="13" t="s">
+    <row r="79" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6">
+        <v>43681</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="12"/>
-      <c r="C75" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
+    <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
+      <c r="C81" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="2" t="s">
+    <row r="84" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="2" t="s">
+    <row r="85" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="89" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>41</v>
       </c>
@@ -2028,12 +2023,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>45</v>
       </c>
@@ -2041,12 +2036,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>48</v>
       </c>
@@ -2054,12 +2049,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>58</v>
       </c>
@@ -2075,12 +2070,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>55</v>
       </c>
@@ -2088,7 +2083,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="2" t="s">
         <v>57</v>
       </c>
@@ -2099,82 +2094,85 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C53" r:id="rId38" location="block-14477" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C52" r:id="rId41" location="g=0" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C55" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C57" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C58" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C59" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C60" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C61" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C62" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C64" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C65" r:id="rId53" location="%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C66" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C67" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C69" r:id="rId57" xr:uid="{58C02D1C-546C-42E7-9096-00A252EAC432}"/>
-    <hyperlink ref="C70" r:id="rId58" xr:uid="{73F80D94-7C21-4F8B-A120-74715C9F7F86}"/>
-    <hyperlink ref="C71" r:id="rId59" xr:uid="{B15AC7F7-1DDD-43C3-BC70-4F3E91F1846D}"/>
-    <hyperlink ref="C72" r:id="rId60" xr:uid="{DC131E05-DD0B-4746-9D59-F6C72AAA8745}"/>
-    <hyperlink ref="C73" r:id="rId61" xr:uid="{8ABB69DE-F62C-4561-A88D-34840D7604ED}"/>
-    <hyperlink ref="C74" r:id="rId62" xr:uid="{0564EFB8-2DE1-4C4C-9C73-44DFE27C944C}"/>
-    <hyperlink ref="C76" r:id="rId63" xr:uid="{53B258A3-5044-45BD-96A0-F4FFB96A5648}"/>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C21" r:id="rId15"/>
+    <hyperlink ref="C23" r:id="rId16"/>
+    <hyperlink ref="C24" r:id="rId17"/>
+    <hyperlink ref="C25" r:id="rId18"/>
+    <hyperlink ref="C26" r:id="rId19"/>
+    <hyperlink ref="C27" r:id="rId20"/>
+    <hyperlink ref="C28" r:id="rId21"/>
+    <hyperlink ref="C30" r:id="rId22"/>
+    <hyperlink ref="C31" r:id="rId23"/>
+    <hyperlink ref="C32" r:id="rId24"/>
+    <hyperlink ref="C33" r:id="rId25"/>
+    <hyperlink ref="C35" r:id="rId26"/>
+    <hyperlink ref="C37" r:id="rId27"/>
+    <hyperlink ref="C39" r:id="rId28"/>
+    <hyperlink ref="C40" r:id="rId29"/>
+    <hyperlink ref="C41" r:id="rId30"/>
+    <hyperlink ref="C42" r:id="rId31"/>
+    <hyperlink ref="C43" r:id="rId32"/>
+    <hyperlink ref="C44" r:id="rId33"/>
+    <hyperlink ref="C45" r:id="rId34"/>
+    <hyperlink ref="C46" r:id="rId35"/>
+    <hyperlink ref="C47" r:id="rId36"/>
+    <hyperlink ref="C48" r:id="rId37"/>
+    <hyperlink ref="C53" r:id="rId38" location="block-14477"/>
+    <hyperlink ref="C49" r:id="rId39"/>
+    <hyperlink ref="C51" r:id="rId40"/>
+    <hyperlink ref="C52" r:id="rId41" location="g=0"/>
+    <hyperlink ref="C55" r:id="rId42"/>
+    <hyperlink ref="C56" r:id="rId43"/>
+    <hyperlink ref="C50" r:id="rId44"/>
+    <hyperlink ref="C57" r:id="rId45"/>
+    <hyperlink ref="C58" r:id="rId46"/>
+    <hyperlink ref="C59" r:id="rId47"/>
+    <hyperlink ref="C60" r:id="rId48"/>
+    <hyperlink ref="C61" r:id="rId49"/>
+    <hyperlink ref="C62" r:id="rId50"/>
+    <hyperlink ref="C63" r:id="rId51"/>
+    <hyperlink ref="C64" r:id="rId52"/>
+    <hyperlink ref="C65" r:id="rId53" location="%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D"/>
+    <hyperlink ref="C66" r:id="rId54"/>
+    <hyperlink ref="C67" r:id="rId55"/>
+    <hyperlink ref="C68" r:id="rId56"/>
+    <hyperlink ref="C69" r:id="rId57"/>
+    <hyperlink ref="C70" r:id="rId58"/>
+    <hyperlink ref="C71" r:id="rId59"/>
+    <hyperlink ref="C72" r:id="rId60"/>
+    <hyperlink ref="C73" r:id="rId61"/>
+    <hyperlink ref="C74" r:id="rId62"/>
+    <hyperlink ref="C76" r:id="rId63"/>
+    <hyperlink ref="C77" r:id="rId64" location="/products/19369"/>
+    <hyperlink ref="C78" r:id="rId65"/>
+    <hyperlink ref="C79" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2182,12 +2180,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/爬虫修复及更新链接20190625(2).xlsx
+++ b/爬虫修复及更新链接20190625(2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>miu miu</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -346,338 +346,357 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Vans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSGM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONVERSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christian Louboutin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaumet 网站域名改变，采集不到了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.converse.com.cn/men-sneakers/category.htm?iid=tpnvmc06012015</t>
+  </si>
+  <si>
+    <t>https://www.chanel.com/zh_CN/watches-jewelry/watches/c/j12/W001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chanel.com/zh_CN/watches-jewelry/fine-jewelry/c/rings/J001000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gucci.cn/zh/ca/men/accessories/belts?pn=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bulgari.cn/zh-cn/jewellery/rings.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.prada.com/cn/zh/women/bags.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ysl.com/wy/saint-laurent/shop-product/%E7%94%B7%E5%A3%AB/%E5%B0%8F%E7%9A%AE%E5%85%B7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.fendi.cn/women/featured/new/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转淘宝了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/explorer/all-models.html</t>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/oyster-perpetual/all-models.html#g=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.debeers.com.cn/high-jewellery/bespoke-classics/1888-master-diamonds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.swarovski.com.cn/zh-CN/c-4002/Categories/%E7%B3%BB%E5%88%97/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.mcmworldwide.com/zh_CN/%E5%A5%B3%E5%A3%AB/%E5%8C%85%E8%A2%8B/%E6%89%80%E6%9C%89%E5%8C%85%E8%A2%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.mcmworldwide.com/zh_CN/%E6%97%85%E8%A1%8C%E7%94%A8%E5%93%81/%E5%A5%B3%E5%A3%AB/%E6%89%80%E6%9C%89%E6%97%85%E8%A1%8C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.laprairie.com.cn/cn/moisturizers?icid=navcatmois</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.longines.cn/watches/elegance/primaluna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.iwc.cn/cn/zh-cn/watches.html#%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kenzo.com/eu/en/women/new-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lorealparis.com.cn/SkinCare/Solution/HydraFresh.loreal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qeelinchina.com/sc/jewellery/categories/necklaces/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.laprairie.com.cn/cn/platinum-rare-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chaumet.com/zh-hans/jewellery/rings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.olay.com.cn/magic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.etro.com/zh_cn/woman/ready-to-wear/outerwear.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ipsa.com.cn/skincare/cleasing.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jurlique.com.cn/cleansers/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maccosmetics.com.cn/products/13854</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.marcjacobs.com/the-marc-jacobs/shop-the-marc-jacobs/?lcat=home_hero&amp;from=home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.maxmara.com/clothing/womens-dresses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jomalone.com.cn/products/3574#/products/19369</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://eshop.narshk.com/html/2018-holiday-checkout-zh.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cledepeau-beaute.com.cn/products-skincare-allproducts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPSA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.nike.com/cn/zh_cn/pw/mens-shoes/7puZoi3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.y-3.com/hk/y3store/men/caps-beanies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.adidas.com.cn/men_originals_shoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.champion.com/shop/champion/men/featured/mens-feature2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rejinapyo.com/collections/dresses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表链接记得选ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.31philliplim.com/cn/sets/woman/dresses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.swatch.cn/zh_cn/watches/originals/big-bold.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>http://us.christianlouboutin.com/ca_en/shop-online-1/women-canada/bags/all-handbags.html</t>
-  </si>
-  <si>
-    <t>Vans</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSGM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONVERSE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.nike.com/cn/zh_cn/pw/mens-shoes/7puZoi3</t>
-  </si>
-  <si>
-    <t>https://www.y-3.com/hk/y3store/men/caps-beanies</t>
-  </si>
-  <si>
-    <t>https://www.adidas.com.cn/men_originals_shoes</t>
-  </si>
-  <si>
-    <t>https://www.champion.com/shop/champion/men/featured/mens-feature2</t>
-  </si>
-  <si>
-    <t>https://rejinapyo.com/collections/dresses</t>
-  </si>
-  <si>
-    <t>Christian Louboutin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vans.com.cn/gallery-index---0---27.html?utm_source=pc_homepage&amp;utm_medium=pc_%E9%9E%8B%E6%AC%BE&amp;utm_campaign=ownsite</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.off---white.com/en/CN/men/t/seasons/fw-2019?f%5Bcategories%5D%5B%5D=876&amp;utf8=%E2%9C%93</t>
-  </si>
-  <si>
-    <t>https://www.31philliplim.com/cn/sets/woman/dresses</t>
-  </si>
-  <si>
-    <t>https://shop.swatch.cn/zh_cn/watches/originals/big-bold.html</t>
-  </si>
-  <si>
-    <t>https://vans.com.cn/gallery-index---0---27.html?utm_source=pc_homepage&amp;utm_medium=pc_%E9%9E%8B%E6%AC%BE&amp;utm_campaign=ownsite</t>
-  </si>
-  <si>
-    <t>Chaumet 网站域名改变，采集不到了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.converse.com.cn/men-sneakers/category.htm?iid=tpnvmc06012015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.msgm.it/en/woman/?RwGal=true&amp;nodi_ID=9484</t>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/watches-jewelry/watches/c/j12/W001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/watches-jewelry/fine-jewelry/c/rings/J001000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.gucci.cn/zh/ca/men/accessories/belts?pn=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bulgari.cn/zh-cn/jewellery/rings.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.prada.com/cn/zh/women/bags.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ysl.com/wy/saint-laurent/shop-product/%E7%94%B7%E5%A3%AB/%E5%B0%8F%E7%9A%AE%E5%85%B7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.fendi.cn/women/featured/new/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转淘宝了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/explorer/all-models.html</t>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/oyster-perpetual/all-models.html#g=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.debeers.com.cn/high-jewellery/bespoke-classics/1888-master-diamonds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.swarovski.com.cn/zh-CN/c-4002/Categories/%E7%B3%BB%E5%88%97/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.mcmworldwide.com/zh_CN/%E5%A5%B3%E5%A3%AB/%E5%8C%85%E8%A2%8B/%E6%89%80%E6%9C%89%E5%8C%85%E8%A2%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.mcmworldwide.com/zh_CN/%E6%97%85%E8%A1%8C%E7%94%A8%E5%93%81/%E5%A5%B3%E5%A3%AB/%E6%89%80%E6%9C%89%E6%97%85%E8%A1%8C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.laprairie.com.cn/cn/moisturizers?icid=navcatmois</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.longines.cn/watches/elegance/primaluna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.iwc.cn/cn/zh-cn/watches.html#%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.kenzo.com/eu/en/women/new-collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.lorealparis.com.cn/SkinCare/Solution/HydraFresh.loreal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://qeelinchina.com/sc/jewellery/categories/necklaces/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.laprairie.com.cn/cn/platinum-rare-collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chaumet.com/zh-hans/jewellery/rings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.olay.com.cn/magic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.etro.com/zh_cn/woman/ready-to-wear/outerwear.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ipsa.com.cn/skincare/cleasing.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jurlique.com.cn/cleansers/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maccosmetics.com.cn/products/13854</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.marcjacobs.com/the-marc-jacobs/shop-the-marc-jacobs/?lcat=home_hero&amp;from=home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.maxmara.com/clothing/womens-dresses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jomalone.com.cn/products/3574#/products/19369</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://eshop.narshk.com/html/2018-holiday-checkout-zh.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cledepeau-beaute.com.cn/products-skincare-allproducts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPSA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +760,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -755,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,6 +814,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1099,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1122,7 +1156,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1131,7 +1165,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1142,7 +1176,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1151,7 +1185,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1162,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1171,7 +1205,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1182,7 +1216,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1193,7 +1227,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1204,7 +1238,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1224,7 +1258,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1233,7 +1267,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1244,7 +1278,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1264,7 +1298,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1273,7 +1307,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1284,7 +1318,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1304,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1324,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1344,7 +1378,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1355,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1364,7 +1398,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1375,7 +1409,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1384,7 +1418,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1395,7 +1429,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1409,20 +1443,20 @@
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1433,7 +1467,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1444,7 +1478,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1464,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1484,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1504,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1513,7 +1547,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1524,7 +1558,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1533,7 +1567,7 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1544,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1553,7 +1587,7 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1564,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1573,7 +1607,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1584,7 +1618,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1595,7 +1629,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1606,7 +1640,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1615,7 +1649,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1626,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1635,7 +1669,7 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1646,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1666,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1675,7 +1709,7 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1683,10 +1717,10 @@
         <v>43674</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1697,7 +1731,7 @@
         <v>39</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1708,7 +1742,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1719,7 +1753,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1728,7 +1762,7 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1739,7 +1773,7 @@
         <v>44</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1748,7 +1782,7 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1759,7 +1793,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1770,7 +1804,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1781,7 +1815,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1792,7 +1826,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1803,7 +1837,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1814,7 +1848,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1825,7 +1859,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1833,10 +1867,10 @@
         <v>43681</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1847,10 +1881,10 @@
         <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>43681</v>
       </c>
@@ -1858,19 +1892,19 @@
         <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="13"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="2" t="s">
         <v>72</v>
       </c>
@@ -1883,7 +1917,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1894,7 +1928,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1905,7 +1939,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1916,106 +1950,139 @@
         <v>76</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+      <c r="C80" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+      <c r="C81" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+      <c r="C82" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
+      <c r="C83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="1" t="s">
+      <c r="C85" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="1" t="s">
+      <c r="C86" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="C87" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>41</v>
       </c>
@@ -2023,12 +2090,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>45</v>
       </c>
@@ -2036,12 +2103,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>48</v>
       </c>
@@ -2160,9 +2227,20 @@
     <hyperlink ref="C77" r:id="rId64" location="/products/19369"/>
     <hyperlink ref="C78" r:id="rId65"/>
     <hyperlink ref="C79" r:id="rId66"/>
+    <hyperlink ref="C80" r:id="rId67"/>
+    <hyperlink ref="C81" r:id="rId68"/>
+    <hyperlink ref="C82" r:id="rId69"/>
+    <hyperlink ref="C83" r:id="rId70"/>
+    <hyperlink ref="C84" r:id="rId71"/>
+    <hyperlink ref="C85" r:id="rId72"/>
+    <hyperlink ref="C86" r:id="rId73"/>
+    <hyperlink ref="C87" r:id="rId74"/>
+    <hyperlink ref="C88" r:id="rId75"/>
+    <hyperlink ref="C89" r:id="rId76"/>
+    <hyperlink ref="C90" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 

--- a/爬虫修复及更新链接20190625(2).xlsx
+++ b/爬虫修复及更新链接20190625(2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>miu miu</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -176,9 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.clubclio-cn.com/category/eye/24/</t>
-  </si>
-  <si>
     <t>http://www.clubclio-cn.com/category/face/26/</t>
   </si>
   <si>
@@ -189,40 +186,16 @@
     <t>MTM</t>
   </si>
   <si>
-    <t>http://www.mtmskincare.com/cn/products/products/1</t>
-  </si>
-  <si>
-    <t>http://www.mtmskincare.com/cn/products/products/best_sellers</t>
-  </si>
-  <si>
     <t>POLA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.pola.com.cn/Goods/goods/cate_id/6</t>
-  </si>
-  <si>
-    <t>http://www.pola.com.cn/Goods/goods/cate_id/14</t>
-  </si>
-  <si>
     <t>Alexandre Zouari</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.alexandre-zouari-accessories.com/onlineshop.php</t>
-  </si>
-  <si>
-    <t>http://www.arte-madrid.eu/index.php?route=product/category&amp;path=0_118</t>
-  </si>
-  <si>
-    <t>http://www.arte-madrid.eu/index.php?route=product/category&amp;path=0_93</t>
-  </si>
-  <si>
     <t>Folli Follie</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.follifollie.com.cn/cn-zh/%E9%A6%96%E9%A5%B0/%E7%B1%BB%E5%88%AB/%E9%A1%B9%E9%93%BE</t>
   </si>
   <si>
     <t>https://www.follifollie.com.cn/cn-zh/%E6%89%8B%E8%A2%8B/%E7%B1%BB%E5%88%AB/%E6%89%8B%E8%A2%8B</t>
@@ -366,337 +339,378 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.chanel.com/zh_CN/watches-jewelry/watches/c/j12/W001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chanel.com/zh_CN/watches-jewelry/fine-jewelry/c/rings/J001000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gucci.cn/zh/ca/men/accessories/belts?pn=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bulgari.cn/zh-cn/jewellery/rings.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.prada.com/cn/zh/women/bags.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ysl.com/wy/saint-laurent/shop-product/%E7%94%B7%E5%A3%AB/%E5%B0%8F%E7%9A%AE%E5%85%B7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.fendi.cn/women/featured/new/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转淘宝了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/explorer/all-models.html</t>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/oyster-perpetual/all-models.html#g=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.debeers.com.cn/high-jewellery/bespoke-classics/1888-master-diamonds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.swarovski.com.cn/zh-CN/c-4002/Categories/%E7%B3%BB%E5%88%97/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.mcmworldwide.com/zh_CN/%E5%A5%B3%E5%A3%AB/%E5%8C%85%E8%A2%8B/%E6%89%80%E6%9C%89%E5%8C%85%E8%A2%8B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.mcmworldwide.com/zh_CN/%E6%97%85%E8%A1%8C%E7%94%A8%E5%93%81/%E5%A5%B3%E5%A3%AB/%E6%89%80%E6%9C%89%E6%97%85%E8%A1%8C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.laprairie.com.cn/cn/moisturizers?icid=navcatmois</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.longines.cn/watches/elegance/primaluna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.iwc.cn/cn/zh-cn/watches.html#%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kenzo.com/eu/en/women/new-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lorealparis.com.cn/SkinCare/Solution/HydraFresh.loreal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qeelinchina.com/sc/jewellery/categories/necklaces/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.laprairie.com.cn/cn/platinum-rare-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chaumet.com/zh-hans/jewellery/rings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.olay.com.cn/magic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.etro.com/zh_cn/woman/ready-to-wear/outerwear.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ipsa.com.cn/skincare/cleasing.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jurlique.com.cn/cleansers/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maccosmetics.com.cn/products/13854</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.marcjacobs.com/the-marc-jacobs/shop-the-marc-jacobs/?lcat=home_hero&amp;from=home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.maxmara.com/clothing/womens-dresses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jomalone.com.cn/products/3574#/products/19369</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://eshop.narshk.com/html/2018-holiday-checkout-zh.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cledepeau-beaute.com.cn/products-skincare-allproducts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPSA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.nike.com/cn/zh_cn/pw/mens-shoes/7puZoi3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.y-3.com/hk/y3store/men/caps-beanies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.adidas.com.cn/men_originals_shoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.champion.com/shop/champion/men/featured/mens-feature2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rejinapyo.com/collections/dresses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表链接记得选ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.31philliplim.com/cn/sets/woman/dresses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.swatch.cn/zh_cn/watches/originals/big-bold.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://us.christianlouboutin.com/ca_en/shop-online-1/women-canada/bags/all-handbags.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vans.com.cn/gallery-index---0---27.html?utm_source=pc_homepage&amp;utm_medium=pc_%E9%9E%8B%E6%AC%BE&amp;utm_campaign=ownsite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.off---white.com/en/CN/men/t/seasons/fw-2019?f%5Bcategories%5D%5B%5D=876&amp;utf8=%E2%9C%93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.msgm.it/en/woman/?RwGal=true&amp;nodi_ID=9484</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.converse.com.cn/men-sneakers/category.htm?iid=tpnvmc06012015</t>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/watches-jewelry/watches/c/j12/W001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/watches-jewelry/fine-jewelry/c/rings/J001000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.gucci.cn/zh/ca/men/accessories/belts?pn=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bulgari.cn/zh-cn/jewellery/rings.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.prada.com/cn/zh/women/bags.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ysl.com/wy/saint-laurent/shop-product/%E7%94%B7%E5%A3%AB/%E5%B0%8F%E7%9A%AE%E5%85%B7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.fendi.cn/women/featured/new/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转淘宝了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/explorer/all-models.html</t>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/oyster-perpetual/all-models.html#g=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.debeers.com.cn/high-jewellery/bespoke-classics/1888-master-diamonds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.swarovski.com.cn/zh-CN/c-4002/Categories/%E7%B3%BB%E5%88%97/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.mcmworldwide.com/zh_CN/%E5%A5%B3%E5%A3%AB/%E5%8C%85%E8%A2%8B/%E6%89%80%E6%9C%89%E5%8C%85%E8%A2%8B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.mcmworldwide.com/zh_CN/%E6%97%85%E8%A1%8C%E7%94%A8%E5%93%81/%E5%A5%B3%E5%A3%AB/%E6%89%80%E6%9C%89%E6%97%85%E8%A1%8C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.laprairie.com.cn/cn/moisturizers?icid=navcatmois</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.longines.cn/watches/elegance/primaluna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.iwc.cn/cn/zh-cn/watches.html#%7B%22collection_filter0%22%3A%5B%22pim%3Aiwc%2FCollectionProductLine%2FCOLL_PILOTS_WATCH%22%5D%7D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.kenzo.com/eu/en/women/new-collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.lorealparis.com.cn/SkinCare/Solution/HydraFresh.loreal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://qeelinchina.com/sc/jewellery/categories/necklaces/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.laprairie.com.cn/cn/platinum-rare-collection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.chaumet.com/zh-hans/jewellery/rings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.olay.com.cn/magic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.etro.com/zh_cn/woman/ready-to-wear/outerwear.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ipsa.com.cn/skincare/cleasing.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jurlique.com.cn/cleansers/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.maccosmetics.com.cn/products/13854</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.marcjacobs.com/the-marc-jacobs/shop-the-marc-jacobs/?lcat=home_hero&amp;from=home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.maxmara.com/clothing/womens-dresses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jomalone.com.cn/products/3574#/products/19369</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://eshop.narshk.com/html/2018-holiday-checkout-zh.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cledepeau-beaute.com.cn/products-skincare-allproducts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPSA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.nike.com/cn/zh_cn/pw/mens-shoes/7puZoi3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.y-3.com/hk/y3store/men/caps-beanies</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.adidas.com.cn/men_originals_shoes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.champion.com/shop/champion/men/featured/mens-feature2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://rejinapyo.com/collections/dresses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表链接记得选ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.31philliplim.com/cn/sets/woman/dresses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://shop.swatch.cn/zh_cn/watches/originals/big-bold.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://us.christianlouboutin.com/ca_en/shop-online-1/women-canada/bags/all-handbags.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://vans.com.cn/gallery-index---0---27.html?utm_source=pc_homepage&amp;utm_medium=pc_%E9%9E%8B%E6%AC%BE&amp;utm_campaign=ownsite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.off---white.com/en/CN/men/t/seasons/fw-2019?f%5Bcategories%5D%5B%5D=876&amp;utf8=%E2%9C%93</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格403</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.msgm.it/en/woman/?RwGal=true&amp;nodi_ID=9484</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被劫持了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mtmskincare.com/cn/products/products/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mtmskincare.com/cn/products/products/best_sellers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.pola.com.cn/Goods/goods/cate_id/6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.pola.com.cn/Goods/goods/cate_id/14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.alexandre-zouari-accessories.com/onlineshop.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.arte-madrid.eu/index.php?route=product/category&amp;path=0_118</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.arte-madrid.eu/index.php?route=product/category&amp;path=0_93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.follifollie.com.cn/cn-zh/%E9%A6%96%E9%A5%B0/%E7%B1%BB%E5%88%AB/%E9%A1%B9%E9%93%BE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.clubclio-cn.com/category/eye/24/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1135,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1156,7 +1170,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1165,7 +1179,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1176,7 +1190,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1185,7 +1199,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1196,7 +1210,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1205,7 +1219,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1213,10 +1227,10 @@
         <v>43642</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1224,10 +1238,10 @@
         <v>43642</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1238,7 +1252,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1258,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1267,7 +1281,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1278,7 +1292,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1298,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1307,7 +1321,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1318,7 +1332,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1338,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1358,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1378,7 +1392,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1389,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1398,7 +1412,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1409,7 +1423,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1418,7 +1432,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1429,7 +1443,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1443,20 +1457,20 @@
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1467,7 +1481,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1478,7 +1492,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1498,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1518,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1538,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1547,7 +1561,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1558,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1567,7 +1581,7 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1578,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1587,7 +1601,7 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1598,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1607,7 +1621,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1618,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1629,7 +1643,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1640,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1649,7 +1663,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1660,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1669,7 +1683,7 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1680,7 +1694,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1700,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1709,7 +1723,7 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1717,10 +1731,10 @@
         <v>43674</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1731,7 +1745,7 @@
         <v>39</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1742,7 +1756,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1750,10 +1764,10 @@
         <v>43674</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1762,7 +1776,7 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1770,10 +1784,10 @@
         <v>43674</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1782,7 +1796,7 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1790,10 +1804,10 @@
         <v>43674</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1801,10 +1815,10 @@
         <v>43674</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1812,10 +1826,10 @@
         <v>43674</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1823,10 +1837,10 @@
         <v>43674</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1834,10 +1848,10 @@
         <v>43674</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1845,10 +1859,10 @@
         <v>43681</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1856,10 +1870,10 @@
         <v>43681</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1867,10 +1881,10 @@
         <v>43681</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1878,10 +1892,10 @@
         <v>43681</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1889,24 +1903,24 @@
         <v>43681</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="16"/>
       <c r="C75" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1914,10 +1928,10 @@
         <v>43681</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1925,10 +1939,10 @@
         <v>43681</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1936,10 +1950,10 @@
         <v>43681</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1947,10 +1961,10 @@
         <v>43681</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1958,21 +1972,21 @@
         <v>43691</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C81" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1980,10 +1994,10 @@
         <v>43691</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1991,13 +2005,13 @@
         <v>43691</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2005,18 +2019,18 @@
         <v>43691</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D85" s="2">
         <v>403</v>
@@ -2027,10 +2041,10 @@
         <v>43691</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2038,10 +2052,10 @@
         <v>43691</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2049,10 +2063,10 @@
         <v>43691</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2060,99 +2074,139 @@
         <v>43691</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>90</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>42</v>
+      <c r="C92" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="2" t="s">
+      <c r="C98" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="1" t="s">
+      <c r="C101" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2238,9 +2292,19 @@
     <hyperlink ref="C88" r:id="rId75"/>
     <hyperlink ref="C89" r:id="rId76"/>
     <hyperlink ref="C90" r:id="rId77"/>
+    <hyperlink ref="C91" r:id="rId78"/>
+    <hyperlink ref="C92" r:id="rId79"/>
+    <hyperlink ref="C94" r:id="rId80"/>
+    <hyperlink ref="C96" r:id="rId81"/>
+    <hyperlink ref="C98" r:id="rId82"/>
+    <hyperlink ref="C99" r:id="rId83"/>
+    <hyperlink ref="C101" r:id="rId84"/>
+    <hyperlink ref="C95" r:id="rId85"/>
+    <hyperlink ref="C97" r:id="rId86"/>
+    <hyperlink ref="C100" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 
